--- a/10_New_Factors/Finish_new_alpha_test.xlsx
+++ b/10_New_Factors/Finish_new_alpha_test.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\量化ddl5.3\十个衍生因子test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{985B1543-7715-433A-AFB8-24FD148F04A2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="80">
   <si>
     <t>Formula</t>
   </si>
@@ -67,9 +73,15 @@
     <t>M_B</t>
   </si>
   <si>
+    <t>Non_Name_Factor1</t>
+  </si>
+  <si>
     <t>PV_SMA</t>
   </si>
   <si>
+    <t>SDR60</t>
+  </si>
+  <si>
     <t>Std_Skewness120</t>
   </si>
   <si>
@@ -94,9 +106,15 @@
     <t>capital_stk*close/tot_assets</t>
   </si>
   <si>
+    <t>Ts_Sum(volume,5)/capital_stk</t>
+  </si>
+  <si>
     <t>SMA(1/3*(close+high+low)*volume,{},{})</t>
   </si>
   <si>
+    <t>StdDev((close/Delay(close,1))-1,{})</t>
+  </si>
+  <si>
     <t>Ts_Skewness(Standardize(close),120)</t>
   </si>
   <si>
@@ -121,9 +139,15 @@
     <t>{'交通运输': -0.06, '传媒': -0.07, '化工': -0.08, '商业贸易': -0.1, '国防军工': -0.05, '建筑装饰': -0.08, '房地产': -0.08, '有色金属': -0.06, '机械设备': -0.07, '轻工制造': -0.1, '通信': -0.11, '采掘': -0.09, '银行': -0.08, '非银金融': -0.12}</t>
   </si>
   <si>
+    <t>{'交通运输': -0.11, '传媒': -0.07, '公用事业': -0.07, '农林牧渔': -0.15, '化工': -0.05, '医药生物': -0.12, '商业贸易': -0.08, '家用电器': -0.1, '建筑材料': -0.11, '建筑装饰': -0.08, '房地产': -0.13, '有色金属': -0.06, '机械设备': -0.11, '汽车': -0.11, '电子': -0.06, '电气设备': -0.07, '纺织服装': -0.1, '计算机': -0.12, '轻工制造': -0.08, '采掘': -0.08, '钢铁': -0.07, '非银金融': -0.08, '食品饮料': -0.09}</t>
+  </si>
+  <si>
     <t>{'交通运输': -0.14, '传媒': -0.1, '公用事业': -0.06, '农林牧渔': -0.2, '化工': -0.08, '医药生物': -0.06, '商业贸易': -0.1, '国防军工': -0.06, '建筑材料': -0.11, '建筑装饰': -0.07, '房地产': -0.1, '有色金属': -0.1, '机械设备': -0.14, '汽车': -0.05, '电子': -0.05, '电气设备': -0.08, '纺织服装': -0.05, '计算机': -0.09, '轻工制造': -0.1, '采掘': -0.12, '钢铁': -0.11, '银行': 0.05, '非银金融': -0.06, '食品饮料': 0.08}</t>
   </si>
   <si>
+    <t>{'交通运输': -0.12, '传媒': -0.05, '公用事业': -0.08, '农林牧渔': -0.11, '医药生物': -0.07, '商业贸易': -0.09, '家用电器': -0.12, '建筑材料': -0.12, '房地产': -0.08, '有色金属': -0.07, '机械设备': -0.13, '汽车': -0.12, '电气设备': -0.08, '综合': 0.09, '轻工制造': -0.07, '采掘': -0.12, '钢铁': -0.08, '银行': -0.05, '非银金融': -0.07, '食品饮料': -0.08}</t>
+  </si>
+  <si>
     <t>{'交通运输': -0.05, '公用事业': -0.05, '农林牧渔': -0.08, '国防军工': -0.07, '家用电器': -0.07, '建筑材料': -0.1, '建筑装饰': -0.05, '机械设备': -0.09, '汽车': -0.06, '综合': -0.11, '轻工制造': -0.06, '采掘': -0.08, '银行': 0.06, '非银金融': -0.07, '食品饮料': -0.06}</t>
   </si>
   <si>
@@ -154,9 +178,15 @@
     <t>账面市值比的倒数</t>
   </si>
   <si>
+    <t>5日成交量之和除以股本总数</t>
+  </si>
+  <si>
     <t>典型价格乘成交量的移动平均</t>
   </si>
   <si>
+    <t>60天收益率的标准差</t>
+  </si>
+  <si>
     <t>标准化收盘价的120日偏度</t>
   </si>
   <si>
@@ -206,17 +236,43 @@
   </si>
   <si>
     <t>风险收益类</t>
+  </si>
+  <si>
+    <t>['close']</t>
+  </si>
+  <si>
+    <t>['turnover_ratio']</t>
+  </si>
+  <si>
+    <t>['high','low']</t>
+  </si>
+  <si>
+    <t>['high','low','volume']</t>
+  </si>
+  <si>
+    <t>['volume',close','high','low']</t>
+  </si>
+  <si>
+    <t>['capital_stk','close','tot_assets']</t>
+  </si>
+  <si>
+    <t>['volume'，‘close','high','low']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>['close']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -224,8 +280,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -271,15 +334,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -321,7 +392,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -353,9 +424,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -387,6 +476,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -562,14 +669,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -601,322 +710,393 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>-0.05</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="K2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D3">
         <v>-0.08</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D4">
         <v>-0.06</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D5">
         <v>-0.08</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K5" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D6">
         <v>-0.06</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="I6" t="s">
         <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="K6" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D7">
         <v>0.04</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="I7" t="s">
         <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="K7" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D8">
         <v>-0.04</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="I8" t="s">
         <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K8" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D9">
-        <v>-0.06</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="I9" t="s">
         <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D10">
-        <v>-0.04</v>
+        <v>-0.06</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="I10" t="s">
         <v>18</v>
       </c>
       <c r="J10" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12">
+        <v>-0.04</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" t="s">
         <v>55</v>
       </c>
-      <c r="K10" t="s">
+      <c r="H12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" t="s">
         <v>63</v>
+      </c>
+      <c r="K12" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>